--- a/excel/material/Week 3 - Excel.xlsx
+++ b/excel/material/Week 3 - Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abelkrw/Downloads/Excel Comp/Content Creator/Soal Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abelkrw/GithubRepo/Github/material-learning/excel/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE48A5FC-FE1A-EB4E-B8C9-141C9AB6D2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56033E46-5BF1-974D-854C-CDA168259508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{8EFE3AA2-C151-0544-89D5-60BA455D9B9A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="5" xr2:uid="{8EFE3AA2-C151-0544-89D5-60BA455D9B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'db lv 1'!$B$16:$J$67</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -774,6 +774,12 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,12 +790,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2256,7 +2256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992D4C18-3C30-F245-9796-649F43E79146}">
   <dimension ref="A2:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="106" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2339,10 +2339,10 @@
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <v>371</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="1" t="b">
         <f>F12=D12</f>
         <v>0</v>
@@ -3976,12 +3976,12 @@
         <v>83</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="26">
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22">
         <v>2</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="1" t="b">
         <f>F12=D12</f>
         <v>0</v>
@@ -5612,12 +5612,12 @@
         <v>83</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="26">
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22">
         <v>69.409090909090907</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="1" t="b">
         <f>F12=D12</f>
         <v>0</v>
@@ -7160,8 +7160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F3E379-6D4A-0444-B9CB-A69150728CDA}">
   <dimension ref="A2:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="F11:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7193,28 +7193,28 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
@@ -7269,10 +7269,10 @@
         <v>83</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="25">
-        <v>51</v>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="27">
+        <v>29</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="1" t="b">
